--- a/Kerangka Tutorial.xlsx
+++ b/Kerangka Tutorial.xlsx
@@ -128,13 +128,13 @@
   <dimension ref="A1:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" tabSelected="1">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" style="1" width="8.534413" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="1" width="33.93522" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" style="1" width="38.13435" customWidth="1"/>
     <col min="3" max="3" style="1" width="50.7166" bestFit="1" customWidth="1"/>
     <col min="4" max="4" style="1" width="18.75664" customWidth="1"/>
     <col min="5" max="5" style="1" width="9.688859" customWidth="1"/>
